--- a/LED Heart Keychain/Altium Files/Project Outputs/HEART_PCB.xlsx
+++ b/LED Heart Keychain/Altium Files/Project Outputs/HEART_PCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\HEART_PCB\Project Outputs for HEART_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{948405BA-5F13-4F45-84E7-24E625AD0D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C1A28-ACDF-4CEB-9C31-825BAACF78AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72720E41-DB4D-4628-B647-472F9D110322}"/>
+    <workbookView xWindow="5580" yWindow="1296" windowWidth="17280" windowHeight="8880" xr2:uid="{72720E41-DB4D-4628-B647-472F9D110322}"/>
   </bookViews>
   <sheets>
     <sheet name="HEART_PCB" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Line #</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Volume Production</t>
   </si>
   <si>
-    <t>Avnet</t>
-  </si>
-  <si>
-    <t>35AJ1969</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -155,7 +149,22 @@
     <t>R15, R16</t>
   </si>
   <si>
-    <t>TFCR2512-2W-E-5101DT-1K</t>
+    <t>CR2512-JW-512ELF</t>
+  </si>
+  <si>
+    <t>900-2171750001CT-ND</t>
+  </si>
+  <si>
+    <t>DigikKey</t>
+  </si>
+  <si>
+    <t>118-CR2512-JW-512ELFCT-ND</t>
+  </si>
+  <si>
+    <t>311-280FRCT-ND</t>
+  </si>
+  <si>
+    <t>Separate order</t>
   </si>
 </sst>
 </file>
@@ -171,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +190,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,12 +233,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,14 +579,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDA08EF-293A-4022-8067-0DF117F56FF3}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
@@ -568,7 +598,7 @@
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" customWidth="1"/>
     <col min="15" max="15" width="18.44140625" customWidth="1"/>
   </cols>
@@ -610,7 +640,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -621,7 +651,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -664,7 +694,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -694,10 +724,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1">
         <v>0.45200000000000001</v>
@@ -707,17 +737,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
@@ -728,31 +758,35 @@
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
@@ -763,18 +797,62 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>180</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
